--- a/Sentiment analysis on central bank statement/data/New Microsoft Excel Worksheet.xlsx
+++ b/Sentiment analysis on central bank statement/data/New Microsoft Excel Worksheet.xlsx
@@ -3,21 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9EC1C1-D460-43F4-9124-6FAF8B2E4AFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F145322-16CE-4A06-86F7-5EDE993530CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2808" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51,8 +54,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -333,10 +337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214:C222"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -374,7 +378,7 @@
         <v>19940517</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">IF(C3=A3,1,0)</f>
+        <f t="shared" ref="B3:B67" si="0">IF(C3=A3,1,0)</f>
         <v>1</v>
       </c>
       <c r="C3">
@@ -989,1938 +993,1950 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
+        <v>20010917</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>20010917</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>20011002</v>
       </c>
-      <c r="B62">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C62">
+      <c r="B63" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
         <v>20011002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>20011106</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>20011106</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>20011211</v>
+        <v>20011106</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C64">
-        <v>20011211</v>
+        <v>20011106</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>20020130</v>
+        <v>20011211</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C65">
-        <v>20020130</v>
+        <v>20011211</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>20020319</v>
+        <v>20020130</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C66">
-        <v>20020319</v>
+        <v>20020130</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>20020507</v>
+        <v>20020319</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B130" si="1">IF(C67=A67,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C67">
-        <v>20020507</v>
+        <v>20020319</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>20020626</v>
+        <v>20020507</v>
       </c>
       <c r="B68">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B68:B131" si="1">IF(C68=A68,1,0)</f>
         <v>1</v>
       </c>
       <c r="C68">
-        <v>20020626</v>
+        <v>20020507</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>20020813</v>
+        <v>20020626</v>
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C69">
-        <v>20020813</v>
+        <v>20020626</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>20020924</v>
+        <v>20020813</v>
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C70">
-        <v>20020924</v>
+        <v>20020813</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>20021106</v>
+        <v>20020924</v>
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C71">
-        <v>20021106</v>
+        <v>20020924</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>20021210</v>
+        <v>20021106</v>
       </c>
       <c r="B72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C72">
-        <v>20021210</v>
+        <v>20021106</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>20030129</v>
+        <v>20021210</v>
       </c>
       <c r="B73">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C73">
-        <v>20030129</v>
+        <v>20021210</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>20030318</v>
+        <v>20030129</v>
       </c>
       <c r="B74">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C74">
-        <v>20030318</v>
+        <v>20030129</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>20030506</v>
+        <v>20030318</v>
       </c>
       <c r="B75">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C75">
-        <v>20030506</v>
+        <v>20030318</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>20030625</v>
+        <v>20030506</v>
       </c>
       <c r="B76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C76">
-        <v>20030625</v>
+        <v>20030506</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>20030812</v>
+        <v>20030625</v>
       </c>
       <c r="B77">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C77">
-        <v>20030812</v>
+        <v>20030625</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>20030916</v>
+        <v>20030812</v>
       </c>
       <c r="B78">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C78">
-        <v>20030916</v>
+        <v>20030812</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>20031028</v>
+        <v>20030916</v>
       </c>
       <c r="B79">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C79">
-        <v>20031028</v>
+        <v>20030916</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>20031209</v>
+        <v>20031028</v>
       </c>
       <c r="B80">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C80">
-        <v>20031209</v>
+        <v>20031028</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>20040128</v>
+        <v>20031209</v>
       </c>
       <c r="B81">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C81">
-        <v>20040128</v>
+        <v>20031209</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>20040316</v>
+        <v>20040128</v>
       </c>
       <c r="B82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C82">
-        <v>20040316</v>
+        <v>20040128</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>20040504</v>
+        <v>20040316</v>
       </c>
       <c r="B83">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C83">
-        <v>20040504</v>
+        <v>20040316</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>20040630</v>
+        <v>20040504</v>
       </c>
       <c r="B84">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C84">
-        <v>20040630</v>
+        <v>20040504</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>20040810</v>
+        <v>20040630</v>
       </c>
       <c r="B85">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C85">
-        <v>20040810</v>
+        <v>20040630</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>20040921</v>
+        <v>20040810</v>
       </c>
       <c r="B86">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C86">
-        <v>20040921</v>
+        <v>20040810</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>20041110</v>
+        <v>20040921</v>
       </c>
       <c r="B87">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C87">
-        <v>20041110</v>
+        <v>20040921</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>20041214</v>
+        <v>20041110</v>
       </c>
       <c r="B88">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C88">
-        <v>20041214</v>
+        <v>20041110</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>20050202</v>
+        <v>20041214</v>
       </c>
       <c r="B89">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C89">
-        <v>20050202</v>
+        <v>20041214</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>20050322</v>
+        <v>20050202</v>
       </c>
       <c r="B90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C90">
-        <v>20050322</v>
+        <v>20050202</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>20050503</v>
+        <v>20050322</v>
       </c>
       <c r="B91">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C91">
-        <v>20050503</v>
+        <v>20050322</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>20050630</v>
+        <v>20050503</v>
       </c>
       <c r="B92">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C92">
-        <v>20050630</v>
+        <v>20050503</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>20050809</v>
+        <v>20050630</v>
       </c>
       <c r="B93">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C93">
-        <v>20050809</v>
+        <v>20050630</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>20050920</v>
+        <v>20050809</v>
       </c>
       <c r="B94">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C94">
-        <v>20050920</v>
+        <v>20050809</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>20051101</v>
+        <v>20050920</v>
       </c>
       <c r="B95">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C95">
-        <v>20051101</v>
+        <v>20050920</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>20051213</v>
+        <v>20051101</v>
       </c>
       <c r="B96">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C96">
-        <v>20051213</v>
+        <v>20051101</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>20060131</v>
+        <v>20051213</v>
       </c>
       <c r="B97">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C97">
-        <v>20060131</v>
+        <v>20051213</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>20060328</v>
+        <v>20060131</v>
       </c>
       <c r="B98">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C98">
-        <v>20060328</v>
+        <v>20060131</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>20060510</v>
+        <v>20060328</v>
       </c>
       <c r="B99">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C99">
-        <v>20060510</v>
+        <v>20060328</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>20060629</v>
+        <v>20060510</v>
       </c>
       <c r="B100">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C100">
-        <v>20060629</v>
+        <v>20060510</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>20060808</v>
+        <v>20060629</v>
       </c>
       <c r="B101">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C101">
-        <v>20060808</v>
+        <v>20060629</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>20060920</v>
+        <v>20060808</v>
       </c>
       <c r="B102">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C102">
-        <v>20060920</v>
+        <v>20060808</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>20061025</v>
+        <v>20060920</v>
       </c>
       <c r="B103">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C103">
-        <v>20061025</v>
+        <v>20060920</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>20061212</v>
+        <v>20061025</v>
       </c>
       <c r="B104">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C104">
-        <v>20061212</v>
+        <v>20061025</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>20070131</v>
+        <v>20061212</v>
       </c>
       <c r="B105">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C105">
-        <v>20070131</v>
+        <v>20061212</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>20070321</v>
+        <v>20070131</v>
       </c>
       <c r="B106">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C106">
-        <v>20070321</v>
+        <v>20070131</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>20070509</v>
+        <v>20070321</v>
       </c>
       <c r="B107">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C107">
-        <v>20070509</v>
+        <v>20070321</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>20070628</v>
+        <v>20070509</v>
       </c>
       <c r="B108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C108">
-        <v>20070628</v>
+        <v>20070509</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>20070807</v>
+        <v>20070628</v>
       </c>
       <c r="B109">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C109">
-        <v>20070807</v>
+        <v>20070628</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>20070918</v>
+        <v>20070807</v>
       </c>
       <c r="B110">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C110">
-        <v>20070918</v>
+        <v>20070807</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>20071031</v>
+        <v>20070918</v>
       </c>
       <c r="B111">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C111">
-        <v>20071031</v>
+        <v>20070918</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>20071211</v>
+        <v>20071031</v>
       </c>
       <c r="B112">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C112">
-        <v>20071211</v>
+        <v>20071031</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>20080130</v>
+        <v>20071211</v>
       </c>
       <c r="B113">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C113">
-        <v>20080130</v>
+        <v>20071211</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>20080318</v>
+        <v>20080130</v>
       </c>
       <c r="B114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C114">
-        <v>20080318</v>
+        <v>20080130</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>20080430</v>
+        <v>20080318</v>
       </c>
       <c r="B115">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C115">
-        <v>20080430</v>
+        <v>20080318</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>20080625</v>
+        <v>20080430</v>
       </c>
       <c r="B116">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C116">
-        <v>20080625</v>
+        <v>20080430</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>20080805</v>
+        <v>20080625</v>
       </c>
       <c r="B117">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C117">
-        <v>20080805</v>
+        <v>20080625</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>20080916</v>
+        <v>20080805</v>
       </c>
       <c r="B118">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C118">
-        <v>20080916</v>
+        <v>20080805</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>20081029</v>
+        <v>20080916</v>
       </c>
       <c r="B119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C119">
-        <v>20081029</v>
+        <v>20080916</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>20081216</v>
+        <v>20081029</v>
       </c>
       <c r="B120">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C120">
-        <v>20081216</v>
+        <v>20081029</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>20090128</v>
+        <v>20081216</v>
       </c>
       <c r="B121">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C121">
-        <v>20090128</v>
+        <v>20081216</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>20090318</v>
+        <v>20090128</v>
       </c>
       <c r="B122">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C122">
-        <v>20090318</v>
+        <v>20090128</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>20090429</v>
+        <v>20090318</v>
       </c>
       <c r="B123">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C123">
-        <v>20090429</v>
+        <v>20090318</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>20090624</v>
+        <v>20090429</v>
       </c>
       <c r="B124">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C124">
-        <v>20090624</v>
+        <v>20090429</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>20090812</v>
+        <v>20090624</v>
       </c>
       <c r="B125">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C125">
-        <v>20090812</v>
+        <v>20090624</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>20090923</v>
+        <v>20090812</v>
       </c>
       <c r="B126">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C126">
-        <v>20090923</v>
+        <v>20090812</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>20091104</v>
+        <v>20090923</v>
       </c>
       <c r="B127">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C127">
-        <v>20091104</v>
+        <v>20090923</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>20091216</v>
+        <v>20091104</v>
       </c>
       <c r="B128">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C128">
-        <v>20091216</v>
+        <v>20091104</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>20100127</v>
+        <v>20091216</v>
       </c>
       <c r="B129">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C129">
-        <v>20100127</v>
+        <v>20091216</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>20100316</v>
+        <v>20100127</v>
       </c>
       <c r="B130">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C130">
-        <v>20100316</v>
+        <v>20100127</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>20100428</v>
+        <v>20100316</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:B194" si="2">IF(C131=A131,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C131">
-        <v>20100428</v>
+        <v>20100316</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>20100623</v>
+        <v>20100428</v>
       </c>
       <c r="B132">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B132:B195" si="2">IF(C132=A132,1,0)</f>
         <v>1</v>
       </c>
       <c r="C132">
-        <v>20100623</v>
+        <v>20100428</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>20100810</v>
+        <v>20100623</v>
       </c>
       <c r="B133">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C133">
-        <v>20100810</v>
+        <v>20100623</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>20100921</v>
+        <v>20100810</v>
       </c>
       <c r="B134">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C134">
-        <v>20100921</v>
+        <v>20100810</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>20101103</v>
+        <v>20100921</v>
       </c>
       <c r="B135">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C135">
-        <v>20101103</v>
+        <v>20100921</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>20101214</v>
+        <v>20101103</v>
       </c>
       <c r="B136">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C136">
-        <v>20101214</v>
+        <v>20101103</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>20110126</v>
+        <v>20101214</v>
       </c>
       <c r="B137">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C137">
-        <v>20110126</v>
+        <v>20101214</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>20110315</v>
+        <v>20110126</v>
       </c>
       <c r="B138">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C138">
-        <v>20110315</v>
+        <v>20110126</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>20110427</v>
+        <v>20110315</v>
       </c>
       <c r="B139">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C139">
-        <v>20110427</v>
+        <v>20110315</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>20110622</v>
+        <v>20110427</v>
       </c>
       <c r="B140">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C140">
-        <v>20110622</v>
+        <v>20110427</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>20110809</v>
+        <v>20110622</v>
       </c>
       <c r="B141">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C141">
-        <v>20110809</v>
+        <v>20110622</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>20110921</v>
+        <v>20110809</v>
       </c>
       <c r="B142">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C142">
-        <v>20110921</v>
+        <v>20110809</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>20111102</v>
+        <v>20110921</v>
       </c>
       <c r="B143">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C143">
-        <v>20111102</v>
+        <v>20110921</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>20111213</v>
+        <v>20111102</v>
       </c>
       <c r="B144">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C144">
-        <v>20111213</v>
+        <v>20111102</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>20120125</v>
+        <v>20111213</v>
       </c>
       <c r="B145">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C145">
-        <v>20120125</v>
+        <v>20111213</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>20120313</v>
+        <v>20120125</v>
       </c>
       <c r="B146">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C146">
-        <v>20120313</v>
+        <v>20120125</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>20120425</v>
+        <v>20120313</v>
       </c>
       <c r="B147">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C147">
-        <v>20120425</v>
+        <v>20120313</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>20120620</v>
+        <v>20120425</v>
       </c>
       <c r="B148">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C148">
-        <v>20120620</v>
+        <v>20120425</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>20120801</v>
+        <v>20120620</v>
       </c>
       <c r="B149">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C149">
-        <v>20120801</v>
+        <v>20120620</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>20120913</v>
+        <v>20120801</v>
       </c>
       <c r="B150">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C150">
-        <v>20120913</v>
+        <v>20120801</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>20121024</v>
+        <v>20120913</v>
       </c>
       <c r="B151">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C151">
-        <v>20121024</v>
+        <v>20120913</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>20121212</v>
+        <v>20121024</v>
       </c>
       <c r="B152">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C152">
-        <v>20121212</v>
+        <v>20121024</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>20130130</v>
+        <v>20121212</v>
       </c>
       <c r="B153">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C153">
-        <v>20130130</v>
+        <v>20121212</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>20130320</v>
+        <v>20130130</v>
       </c>
       <c r="B154">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C154">
-        <v>20130320</v>
+        <v>20130130</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>20130501</v>
+        <v>20130320</v>
       </c>
       <c r="B155">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C155">
-        <v>20130501</v>
+        <v>20130320</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>20130619</v>
+        <v>20130501</v>
       </c>
       <c r="B156">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C156">
-        <v>20130619</v>
+        <v>20130501</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>20130731</v>
+        <v>20130619</v>
       </c>
       <c r="B157">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C157">
-        <v>20130731</v>
+        <v>20130619</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>20130918</v>
+        <v>20130731</v>
       </c>
       <c r="B158">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C158">
-        <v>20130918</v>
+        <v>20130731</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>20131030</v>
+        <v>20130918</v>
       </c>
       <c r="B159">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C159">
-        <v>20131030</v>
+        <v>20130918</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>20131218</v>
+        <v>20131030</v>
       </c>
       <c r="B160">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C160">
-        <v>20131218</v>
+        <v>20131030</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>20140129</v>
+        <v>20131218</v>
       </c>
       <c r="B161">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C161">
-        <v>20140129</v>
+        <v>20131218</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>20140319</v>
+        <v>20140129</v>
       </c>
       <c r="B162">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C162">
-        <v>20140319</v>
+        <v>20140129</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>20140430</v>
+        <v>20140319</v>
       </c>
       <c r="B163">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C163">
-        <v>20140430</v>
+        <v>20140319</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>20140618</v>
+        <v>20140430</v>
       </c>
       <c r="B164">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C164">
-        <v>20140618</v>
+        <v>20140430</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>20140730</v>
+        <v>20140618</v>
       </c>
       <c r="B165">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C165">
-        <v>20140730</v>
+        <v>20140618</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>20140917</v>
+        <v>20140730</v>
       </c>
       <c r="B166">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C166">
-        <v>20140917</v>
+        <v>20140730</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>20141029</v>
+        <v>20140917</v>
       </c>
       <c r="B167">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C167">
-        <v>20141029</v>
+        <v>20140917</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>20141217</v>
+        <v>20141029</v>
       </c>
       <c r="B168">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C168">
-        <v>20141217</v>
+        <v>20141029</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>20150128</v>
+        <v>20141217</v>
       </c>
       <c r="B169">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C169">
-        <v>20150128</v>
+        <v>20141217</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>20150318</v>
+        <v>20150128</v>
       </c>
       <c r="B170">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C170">
-        <v>20150318</v>
+        <v>20150128</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>20150429</v>
+        <v>20150318</v>
       </c>
       <c r="B171">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C171">
-        <v>20150429</v>
+        <v>20150318</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>20150617</v>
+        <v>20150429</v>
       </c>
       <c r="B172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C172">
-        <v>20150617</v>
+        <v>20150429</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>20150729</v>
+        <v>20150617</v>
       </c>
       <c r="B173">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C173">
-        <v>20150729</v>
+        <v>20150617</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>20150917</v>
+        <v>20150729</v>
       </c>
       <c r="B174">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C174">
-        <v>20150917</v>
+        <v>20150729</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>20151028</v>
+        <v>20150917</v>
       </c>
       <c r="B175">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C175">
-        <v>20151028</v>
+        <v>20150917</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>20151216</v>
+        <v>20151028</v>
       </c>
       <c r="B176">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C176">
-        <v>20151216</v>
+        <v>20151028</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>20160127</v>
+        <v>20151216</v>
       </c>
       <c r="B177">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C177">
-        <v>20160127</v>
+        <v>20151216</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>20160316</v>
+        <v>20160127</v>
       </c>
       <c r="B178">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C178">
-        <v>20160316</v>
+        <v>20160127</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>20160427</v>
+        <v>20160316</v>
       </c>
       <c r="B179">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C179">
-        <v>20160427</v>
+        <v>20160316</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>20160615</v>
+        <v>20160427</v>
       </c>
       <c r="B180">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C180">
-        <v>20160615</v>
+        <v>20160427</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>20160727</v>
+        <v>20160615</v>
       </c>
       <c r="B181">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C181">
-        <v>20160727</v>
+        <v>20160615</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>20160921</v>
+        <v>20160727</v>
       </c>
       <c r="B182">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C182">
-        <v>20160921</v>
+        <v>20160727</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>20161102</v>
+        <v>20160921</v>
       </c>
       <c r="B183">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C183">
-        <v>20161102</v>
+        <v>20160921</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>20161214</v>
+        <v>20161102</v>
       </c>
       <c r="B184">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C184">
-        <v>20161214</v>
+        <v>20161102</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>20170201</v>
+        <v>20161214</v>
       </c>
       <c r="B185">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C185">
-        <v>20170201</v>
+        <v>20161214</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>20170315</v>
+        <v>20170201</v>
       </c>
       <c r="B186">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C186">
-        <v>20170315</v>
+        <v>20170201</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>20170503</v>
+        <v>20170315</v>
       </c>
       <c r="B187">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C187">
-        <v>20170503</v>
+        <v>20170315</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>20170614</v>
+        <v>20170503</v>
       </c>
       <c r="B188">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C188">
-        <v>20170614</v>
+        <v>20170503</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>20170726</v>
+        <v>20170614</v>
       </c>
       <c r="B189">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C189">
-        <v>20170726</v>
+        <v>20170614</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>20170920</v>
+        <v>20170726</v>
       </c>
       <c r="B190">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C190">
-        <v>20170920</v>
+        <v>20170726</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>20171101</v>
+        <v>20170920</v>
       </c>
       <c r="B191">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C191">
-        <v>20171101</v>
+        <v>20170920</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>20171213</v>
+        <v>20171101</v>
       </c>
       <c r="B192">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C192">
-        <v>20171213</v>
+        <v>20171101</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>20180131</v>
+        <v>20171213</v>
       </c>
       <c r="B193">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C193">
-        <v>20180131</v>
+        <v>20171213</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>20180321</v>
+        <v>20180131</v>
       </c>
       <c r="B194">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C194">
-        <v>20180321</v>
+        <v>20180131</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>20180502</v>
+        <v>20180321</v>
       </c>
       <c r="B195">
-        <f t="shared" ref="B195:B222" si="3">IF(C195=A195,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C195">
-        <v>20180502</v>
+        <v>20180321</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>20180613</v>
+        <v>20180502</v>
       </c>
       <c r="B196">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B196:B223" si="3">IF(C196=A196,1,0)</f>
         <v>1</v>
       </c>
       <c r="C196">
-        <v>20180613</v>
+        <v>20180502</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>20180801</v>
+        <v>20180613</v>
       </c>
       <c r="B197">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C197">
-        <v>20180801</v>
+        <v>20180613</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>20180926</v>
+        <v>20180801</v>
       </c>
       <c r="B198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C198">
-        <v>20180926</v>
+        <v>20180801</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>20181108</v>
+        <v>20180926</v>
       </c>
       <c r="B199">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C199">
-        <v>20181108</v>
+        <v>20180926</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>20181219</v>
+        <v>20181108</v>
       </c>
       <c r="B200">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C200">
-        <v>20181219</v>
+        <v>20181108</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>20190130</v>
+        <v>20181219</v>
       </c>
       <c r="B201">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C201">
-        <v>20190130</v>
+        <v>20181219</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>20190320</v>
+        <v>20190130</v>
       </c>
       <c r="B202">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C202">
-        <v>20190320</v>
+        <v>20190130</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>20190501</v>
+        <v>20190320</v>
       </c>
       <c r="B203">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C203">
-        <v>20190501</v>
+        <v>20190320</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>20190619</v>
+        <v>20190501</v>
       </c>
       <c r="B204">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C204">
-        <v>20190619</v>
+        <v>20190501</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>20190731</v>
+        <v>20190619</v>
       </c>
       <c r="B205">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C205">
-        <v>20190731</v>
+        <v>20190619</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>20190918</v>
+        <v>20190731</v>
       </c>
       <c r="B206">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C206">
-        <v>20190918</v>
+        <v>20190731</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>20191030</v>
+        <v>20190918</v>
       </c>
       <c r="B207">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C207">
-        <v>20191030</v>
+        <v>20190918</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>20191211</v>
+        <v>20191030</v>
       </c>
       <c r="B208">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C208">
-        <v>20191211</v>
+        <v>20191030</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>20200129</v>
+        <v>20191211</v>
       </c>
       <c r="B209">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C209">
-        <v>20200129</v>
+        <v>20191211</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>20200315</v>
+        <v>20200129</v>
       </c>
       <c r="B210">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C210">
-        <v>20200315</v>
+        <v>20200129</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>20200429</v>
+        <v>20200315</v>
       </c>
       <c r="B211">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C211">
-        <v>20200429</v>
+        <v>20200315</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>20200610</v>
+        <v>20200429</v>
       </c>
       <c r="B212">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C212">
-        <v>20200610</v>
+        <v>20200429</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>20200729</v>
+        <v>20200610</v>
       </c>
       <c r="B213">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C213">
-        <v>20200729</v>
+        <v>20200610</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>20200916</v>
+        <v>20200729</v>
       </c>
       <c r="B214">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C214">
-        <v>20200916</v>
+        <v>20200729</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>20201105</v>
+        <v>20200916</v>
       </c>
       <c r="B215">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C215">
-        <v>20201105</v>
+        <v>20200916</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>20201216</v>
+        <v>20201105</v>
       </c>
       <c r="B216">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C216">
-        <v>20201216</v>
+        <v>20201105</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>20210127</v>
+        <v>20201216</v>
       </c>
       <c r="B217">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C217">
-        <v>20210127</v>
+        <v>20201216</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>20210317</v>
+        <v>20210127</v>
       </c>
       <c r="B218">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C218">
-        <v>20210317</v>
+        <v>20210127</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>20210428</v>
+        <v>20210317</v>
       </c>
       <c r="B219">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C219">
-        <v>20210428</v>
+        <v>20210317</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>20210616</v>
+        <v>20210428</v>
       </c>
       <c r="B220">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C220">
-        <v>20210616</v>
+        <v>20210428</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>20210728</v>
+        <v>20210616</v>
       </c>
       <c r="B221">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C221">
-        <v>20210728</v>
+        <v>20210616</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>20210922</v>
+        <v>20210728</v>
       </c>
       <c r="B222">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C222">
+        <v>20210728</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223">
         <v>20210922</v>
       </c>
+      <c r="B223">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>20210922</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A112">
+  <sortState ref="A1:A113">
     <sortCondition ref="A1"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
